--- a/data/trans_orig/P62A$invalidez-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P62A$invalidez-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>42999</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30902</v>
+        <v>32616</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57124</v>
+        <v>58140</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08421808305159396</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06052516981492077</v>
+        <v>0.06388173339044811</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.111882965002867</v>
+        <v>0.1138725483967356</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -765,19 +765,19 @@
         <v>27321</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18276</v>
+        <v>18335</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39142</v>
+        <v>38610</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06073296321955142</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04062733542903926</v>
+        <v>0.0407582798123367</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08700966948004141</v>
+        <v>0.08582660451805979</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -786,19 +786,19 @@
         <v>70320</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55095</v>
+        <v>55843</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87943</v>
+        <v>88356</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07321784490911011</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05736471879362966</v>
+        <v>0.05814369777861129</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09156688555103475</v>
+        <v>0.09199697582082661</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>462063</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>446810</v>
+        <v>446405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>474174</v>
+        <v>473229</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9049918696624164</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8751184285025332</v>
+        <v>0.8743258898521908</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9287131598399032</v>
+        <v>0.9268626519893466</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>163</v>
@@ -836,19 +836,19 @@
         <v>167745</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147989</v>
+        <v>148645</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>188795</v>
+        <v>189292</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3728859708891244</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3289701295653207</v>
+        <v>0.3304281056077731</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4196776631668115</v>
+        <v>0.420783953280034</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>653</v>
@@ -857,19 +857,19 @@
         <v>629808</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>597269</v>
+        <v>599619</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>660066</v>
+        <v>657614</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6557578165518794</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6218789743418551</v>
+        <v>0.6243256012175855</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6872635433561457</v>
+        <v>0.6847104709732725</v>
       </c>
     </row>
     <row r="6">
@@ -889,16 +889,16 @@
         <v>871</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7914</v>
+        <v>7924</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.006823048467788547</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001705175317181173</v>
+        <v>0.001705556093071629</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01549945727026299</v>
+        <v>0.01551958064155437</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -907,19 +907,19 @@
         <v>15860</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9962</v>
+        <v>9676</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25627</v>
+        <v>25355</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03525476205106288</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02214560828770127</v>
+        <v>0.02150941640743744</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05696666427334086</v>
+        <v>0.05636143808209421</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -928,19 +928,19 @@
         <v>19343</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12408</v>
+        <v>11820</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29861</v>
+        <v>30432</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02014023068579001</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01291963148463266</v>
+        <v>0.01230650937963654</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0310912569464532</v>
+        <v>0.03168627837297491</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7069</v>
+        <v>6156</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003966998818201072</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01384483860407933</v>
+        <v>0.01205721659116376</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>234</v>
@@ -978,19 +978,19 @@
         <v>244115</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>223508</v>
+        <v>222751</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>265811</v>
+        <v>264924</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5426523673528993</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4968432298364487</v>
+        <v>0.4951617025424839</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5908807818501995</v>
+        <v>0.5889084685138486</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>236</v>
@@ -999,19 +999,19 @@
         <v>246141</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>218655</v>
+        <v>220789</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>273966</v>
+        <v>274705</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2562828217789389</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2276641405026588</v>
+        <v>0.2298865870224606</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2852546497873005</v>
+        <v>0.2860237411981049</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>24887</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17222</v>
+        <v>16447</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35478</v>
+        <v>35043</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1493469172388924</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1033450721756201</v>
+        <v>0.09869530844559933</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2128985243009501</v>
+        <v>0.210289940457118</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -1053,19 +1053,19 @@
         <v>15852</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9306</v>
+        <v>9527</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24283</v>
+        <v>24139</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1864976215109536</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.109485205186314</v>
+        <v>0.1120929169783447</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2856967484581868</v>
+        <v>0.283998721261842</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -1074,19 +1074,19 @@
         <v>40739</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30452</v>
+        <v>30192</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>53705</v>
+        <v>52943</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1618953102572845</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1210172284299013</v>
+        <v>0.1199811062372496</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2134205994311218</v>
+        <v>0.2103934029601196</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>139707</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>129045</v>
+        <v>129493</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>147838</v>
+        <v>148799</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8383686717606773</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7743872814875529</v>
+        <v>0.7770703461688775</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8871579585749073</v>
+        <v>0.8929269450618011</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>27</v>
@@ -1124,19 +1124,19 @@
         <v>26956</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18352</v>
+        <v>18653</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36084</v>
+        <v>36136</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.317150213562972</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2159129307737496</v>
+        <v>0.2194538419077895</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4245432149663571</v>
+        <v>0.4251487249888222</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>166</v>
@@ -1145,19 +1145,19 @@
         <v>166663</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>149405</v>
+        <v>151117</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>181701</v>
+        <v>183036</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6623167182362359</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5937339659535928</v>
+        <v>0.6005355588133341</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7220752061210878</v>
+        <v>0.7273820123045154</v>
       </c>
     </row>
     <row r="10">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7258</v>
+        <v>7201</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01228441100043032</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04355163818303559</v>
+        <v>0.04321464543812947</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1195,19 +1195,19 @@
         <v>10325</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4781</v>
+        <v>4752</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18764</v>
+        <v>17527</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1214760500356679</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05624728385020676</v>
+        <v>0.05590819689598078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2207645798771733</v>
+        <v>0.2062043444167583</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1216,19 +1216,19 @@
         <v>12372</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6065</v>
+        <v>6185</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20241</v>
+        <v>21702</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04916606984873904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02410178190170907</v>
+        <v>0.02457981582511844</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08043772092444358</v>
+        <v>0.08624464715892489</v>
       </c>
     </row>
     <row r="11">
@@ -1258,19 +1258,19 @@
         <v>32979</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23933</v>
+        <v>24923</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>43184</v>
+        <v>41306</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3880119293120274</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2815748618103571</v>
+        <v>0.2932301974513094</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5080682258721132</v>
+        <v>0.4859805272346945</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>30</v>
@@ -1279,19 +1279,19 @@
         <v>32979</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22879</v>
+        <v>23297</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47074</v>
+        <v>46090</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1310587855663754</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09092115105406906</v>
+        <v>0.09258100763064307</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1870701333814922</v>
+        <v>0.1831603224110624</v>
       </c>
     </row>
     <row r="12">
@@ -1312,19 +1312,19 @@
         <v>4206</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9747</v>
+        <v>10360</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06933009559089431</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01506643452074756</v>
+        <v>0.01502141452129706</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.160675804608196</v>
+        <v>0.1707747053614401</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -1333,19 +1333,19 @@
         <v>4238</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1065</v>
+        <v>1021</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9133</v>
+        <v>9426</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1027816239591331</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02582157941419517</v>
+        <v>0.0247591390381547</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.221490933953936</v>
+        <v>0.2286085893295091</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1354,19 +1354,19 @@
         <v>8444</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3910</v>
+        <v>3456</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16425</v>
+        <v>15817</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08286677982180128</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03837404088210234</v>
+        <v>0.03391718967048839</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1611899266332421</v>
+        <v>0.1552225010011616</v>
       </c>
     </row>
     <row r="13">
@@ -1383,19 +1383,19 @@
         <v>55530</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49719</v>
+        <v>49622</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58903</v>
+        <v>58951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9153817285861462</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8195960933288314</v>
+        <v>0.8179977323715484</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9709793294897384</v>
+        <v>0.9717827956693073</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1404,19 +1404,19 @@
         <v>30431</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24100</v>
+        <v>24126</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35349</v>
+        <v>35698</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7379993798150981</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.584477888072191</v>
+        <v>0.5851055368395562</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8572815250387379</v>
+        <v>0.8657471524352511</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -1425,19 +1425,19 @@
         <v>85960</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76747</v>
+        <v>77262</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92805</v>
+        <v>92845</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8436011863933379</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7531845842834065</v>
+        <v>0.7582337468486147</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9107690927134796</v>
+        <v>0.9111625908551383</v>
       </c>
     </row>
     <row r="14">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4492</v>
+        <v>4675</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01528817582295952</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07405293273713032</v>
+        <v>0.07705861042820165</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5154</v>
+        <v>4138</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02468009345131258</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.124998656639492</v>
+        <v>0.100345378101276</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6653</v>
+        <v>5945</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01908876220747926</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0652938222346344</v>
+        <v>0.05834019566586047</v>
       </c>
     </row>
     <row r="15">
@@ -1538,19 +1538,19 @@
         <v>6411</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12459</v>
+        <v>12456</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1554807430059774</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06351058205811463</v>
+        <v>0.0634739726311823</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3021428253891683</v>
+        <v>0.3020762501645192</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -1559,19 +1559,19 @@
         <v>6411</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2329</v>
+        <v>2696</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12926</v>
+        <v>12762</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06291771481679313</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02285334213257878</v>
+        <v>0.02645884041620266</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1268556142669533</v>
+        <v>0.1252481189143123</v>
       </c>
     </row>
     <row r="16">
@@ -1592,19 +1592,19 @@
         <v>72092</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>57949</v>
+        <v>56949</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88786</v>
+        <v>88848</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09770280915819703</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07853439492203861</v>
+        <v>0.07717931018446877</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1203262674879033</v>
+        <v>0.1204109775294884</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -1613,19 +1613,19 @@
         <v>47411</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35381</v>
+        <v>35563</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62311</v>
+        <v>61287</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08229793987075504</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06141543492966444</v>
+        <v>0.06173126755344598</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1081631461637326</v>
+        <v>0.106384347923355</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>116</v>
@@ -1634,19 +1634,19 @@
         <v>119503</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>99951</v>
+        <v>99801</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141147</v>
+        <v>140828</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0909487838000031</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07606866298187306</v>
+        <v>0.07595453400478651</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1074210541607521</v>
+        <v>0.1071782522606371</v>
       </c>
     </row>
     <row r="17">
@@ -1663,19 +1663,19 @@
         <v>657299</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>639461</v>
+        <v>638979</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>671984</v>
+        <v>672696</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8907998537697298</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8666245858242334</v>
+        <v>0.8659715833808598</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9107012951576557</v>
+        <v>0.9116667862157328</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>221</v>
@@ -1684,19 +1684,19 @@
         <v>225132</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>201796</v>
+        <v>203268</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>250649</v>
+        <v>250212</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.390796189483865</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.35028840902277</v>
+        <v>0.3528436991532604</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4350893710054947</v>
+        <v>0.4343306612705364</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>899</v>
@@ -1705,19 +1705,19 @@
         <v>882431</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>849902</v>
+        <v>845445</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>915469</v>
+        <v>917606</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6715810233620241</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6468242361207818</v>
+        <v>0.6434323146034792</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6967245768226348</v>
+        <v>0.6983512560598782</v>
       </c>
     </row>
     <row r="18">
@@ -1734,19 +1734,19 @@
         <v>6458</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2825</v>
+        <v>2661</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13031</v>
+        <v>13106</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.008752382786893224</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.00382867849808769</v>
+        <v>0.003605743727695019</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01766007390331516</v>
+        <v>0.01776120358006245</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -1755,19 +1755,19 @@
         <v>27202</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18639</v>
+        <v>17402</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>38450</v>
+        <v>38165</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04721893638108128</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0323546080070905</v>
+        <v>0.03020704318614225</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06674302125870396</v>
+        <v>0.06624851495019894</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -1776,19 +1776,19 @@
         <v>33660</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23050</v>
+        <v>23968</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>46060</v>
+        <v>46452</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02561744496754178</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01754262505745434</v>
+        <v>0.01824129120381596</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03505453998732307</v>
+        <v>0.03535264077504194</v>
       </c>
     </row>
     <row r="19">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7031</v>
+        <v>7452</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002744954285179886</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.009528505820974182</v>
+        <v>0.01009954173770025</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>270</v>
@@ -1826,19 +1826,19 @@
         <v>283506</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>258716</v>
+        <v>259339</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>307967</v>
+        <v>307087</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4921244463497008</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4490928486730577</v>
+        <v>0.4501747203678709</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5345852155108695</v>
+        <v>0.5330574690076794</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>272</v>
@@ -1847,19 +1847,19 @@
         <v>285531</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>255741</v>
+        <v>253176</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>316443</v>
+        <v>316797</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2173057816125692</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1946335309514557</v>
+        <v>0.1926812353733689</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2408313748449762</v>
+        <v>0.2411003927838093</v>
       </c>
     </row>
     <row r="20">
@@ -2119,19 +2119,19 @@
         <v>60886</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47224</v>
+        <v>46429</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>78902</v>
+        <v>77197</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1109018413928339</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0860165919555794</v>
+        <v>0.0845697642201146</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1437171708227844</v>
+        <v>0.1406117747132657</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -2140,19 +2140,19 @@
         <v>35892</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26206</v>
+        <v>24840</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48204</v>
+        <v>48289</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06686923020551247</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04882353106068305</v>
+        <v>0.04627926269326266</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08980731469660302</v>
+        <v>0.08996568832558505</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -2161,19 +2161,19 @@
         <v>96778</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79105</v>
+        <v>77461</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>117866</v>
+        <v>116171</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08913413144485377</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07285747769922667</v>
+        <v>0.07134321898780173</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1085570672547398</v>
+        <v>0.1069958549513647</v>
       </c>
     </row>
     <row r="5">
@@ -2190,19 +2190,19 @@
         <v>462631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>443329</v>
+        <v>444229</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>478454</v>
+        <v>479696</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8426683729717043</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8075105434758886</v>
+        <v>0.8091496547495219</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8714899782097758</v>
+        <v>0.8737513910651282</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>187</v>
@@ -2211,19 +2211,19 @@
         <v>198832</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>178130</v>
+        <v>176825</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>223890</v>
+        <v>221550</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3704389350682666</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3318689576179912</v>
+        <v>0.3294387644359382</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4171244474818696</v>
+        <v>0.4127651964123664</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>611</v>
@@ -2232,19 +2232,19 @@
         <v>661463</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>628750</v>
+        <v>629144</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>696205</v>
+        <v>694385</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.60921972761543</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5790902936474739</v>
+        <v>0.5794537483902014</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6412178295025344</v>
+        <v>0.6395417273948064</v>
       </c>
     </row>
     <row r="6">
@@ -2261,19 +2261,19 @@
         <v>22452</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13480</v>
+        <v>14034</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35210</v>
+        <v>33861</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0408948840053542</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02455376222869973</v>
+        <v>0.02556273728829577</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06413408417288025</v>
+        <v>0.06167703899737713</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -2282,19 +2282,19 @@
         <v>35266</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25314</v>
+        <v>23511</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49411</v>
+        <v>48237</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06570354813518564</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04716113598346761</v>
+        <v>0.04380323080017137</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09205662242327534</v>
+        <v>0.08986945873223</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -2303,19 +2303,19 @@
         <v>57718</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>42505</v>
+        <v>42647</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>77204</v>
+        <v>74871</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05315915338237726</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03914814462777089</v>
+        <v>0.03927854638530002</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07110672354905016</v>
+        <v>0.06895758721502308</v>
       </c>
     </row>
     <row r="7">
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10931</v>
+        <v>10636</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00553490163010761</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01991008977162465</v>
+        <v>0.01937335119562394</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>262</v>
@@ -2353,19 +2353,19 @@
         <v>280459</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>255098</v>
+        <v>257552</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>300915</v>
+        <v>303813</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5225163125970822</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4752660454896414</v>
+        <v>0.47983804648256</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5606274366106192</v>
+        <v>0.5660257314793461</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>264</v>
@@ -2374,19 +2374,19 @@
         <v>283498</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>253608</v>
+        <v>254032</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>313879</v>
+        <v>315062</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2611068765591551</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2335773672538712</v>
+        <v>0.2339680318028245</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2890882616690695</v>
+        <v>0.2901779184760608</v>
       </c>
     </row>
     <row r="8">
@@ -2407,19 +2407,19 @@
         <v>72438</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58196</v>
+        <v>58483</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>88330</v>
+        <v>87499</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2629787355133096</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2112729928803906</v>
+        <v>0.2123169701426461</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3206714868241133</v>
+        <v>0.3176555349286631</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -2428,19 +2428,19 @@
         <v>36801</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26733</v>
+        <v>25728</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50105</v>
+        <v>49957</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2156459611408603</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.156651913476426</v>
+        <v>0.1507642303679547</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2936062975655758</v>
+        <v>0.292742980443147</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>96</v>
@@ -2449,19 +2449,19 @@
         <v>109239</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>91318</v>
+        <v>91149</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>130666</v>
+        <v>130222</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.244872136598446</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.204701333653803</v>
+        <v>0.2043208618247131</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2929033357985044</v>
+        <v>0.2919086890450454</v>
       </c>
     </row>
     <row r="9">
@@ -2478,19 +2478,19 @@
         <v>167132</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>149036</v>
+        <v>149255</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>184559</v>
+        <v>183280</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6067538885975473</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.541059161953434</v>
+        <v>0.5418542558164519</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6700187854348532</v>
+        <v>0.6653776673634817</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>39</v>
@@ -2499,19 +2499,19 @@
         <v>43605</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31976</v>
+        <v>32642</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>55752</v>
+        <v>57146</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2555206341586456</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1873754858831335</v>
+        <v>0.1912763887345466</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3266998737838837</v>
+        <v>0.3348665494690299</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>188</v>
@@ -2520,19 +2520,19 @@
         <v>210738</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>189267</v>
+        <v>189599</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>232825</v>
+        <v>234368</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4723937174897843</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4242637577662997</v>
+        <v>0.4250095118266884</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.521904274074431</v>
+        <v>0.525363477270794</v>
       </c>
     </row>
     <row r="10">
@@ -2549,19 +2549,19 @@
         <v>35883</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25724</v>
+        <v>24987</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50179</v>
+        <v>47221</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1302673758891431</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09338964397240672</v>
+        <v>0.0907135385459694</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.182170743411442</v>
+        <v>0.1714297343599522</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -2570,19 +2570,19 @@
         <v>54420</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42869</v>
+        <v>41659</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68485</v>
+        <v>68315</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3188901427699393</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2512070116242426</v>
+        <v>0.2441150828516303</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4013140732313472</v>
+        <v>0.4003172052483347</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -2591,19 +2591,19 @@
         <v>90302</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72498</v>
+        <v>72843</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109762</v>
+        <v>110976</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2024228079635057</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1625121112324372</v>
+        <v>0.163285432689451</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2460439766307901</v>
+        <v>0.2487667651942193</v>
       </c>
     </row>
     <row r="11">
@@ -2633,19 +2633,19 @@
         <v>37782</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26875</v>
+        <v>27469</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49776</v>
+        <v>50827</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2213984494555086</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1574845858586175</v>
+        <v>0.160961479481268</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2916817953641562</v>
+        <v>0.2978376593030797</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -2654,19 +2654,19 @@
         <v>37782</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26766</v>
+        <v>26873</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>51465</v>
+        <v>52274</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08469338587929803</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05999904307411604</v>
+        <v>0.06023861540020984</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1153651387663516</v>
+        <v>0.1171784745235793</v>
       </c>
     </row>
     <row r="12">
@@ -2687,19 +2687,19 @@
         <v>8595</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3310</v>
+        <v>3323</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16198</v>
+        <v>15234</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1883744092755084</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07253769091565292</v>
+        <v>0.07282650906544549</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.355013038593344</v>
+        <v>0.3338959806628107</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -2708,19 +2708,19 @@
         <v>5717</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1904</v>
+        <v>1969</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>11478</v>
+        <v>12220</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1606888031162003</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05351612515053665</v>
+        <v>0.05533448658478179</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3226367582290444</v>
+        <v>0.3434851729611437</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -2729,19 +2729,19 @@
         <v>14311</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7508</v>
+        <v>7923</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23517</v>
+        <v>23277</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1762448437089019</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09246735691622691</v>
+        <v>0.09756796469892018</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2896115556164386</v>
+        <v>0.2866553901028634</v>
       </c>
     </row>
     <row r="13">
@@ -2758,19 +2758,19 @@
         <v>36094</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28623</v>
+        <v>29150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41433</v>
+        <v>41438</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7910885923964558</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6273315342160771</v>
+        <v>0.6388965208899154</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9081091484282091</v>
+        <v>0.9082096771711491</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -2779,19 +2779,19 @@
         <v>21495</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15443</v>
+        <v>14767</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27132</v>
+        <v>27306</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6041863922004682</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4340770276086485</v>
+        <v>0.4150851369132281</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7626475140122284</v>
+        <v>0.767530887275835</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -2800,19 +2800,19 @@
         <v>57588</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48282</v>
+        <v>48022</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66201</v>
+        <v>65869</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7092033528689099</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5945982330307583</v>
+        <v>0.5914014008935193</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8152789770885808</v>
+        <v>0.811181133048491</v>
       </c>
     </row>
     <row r="14">
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5038</v>
+        <v>5178</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02053699832803575</v>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1104119006486469</v>
+        <v>0.1134905664000363</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -2850,19 +2850,19 @@
         <v>6390</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2764</v>
+        <v>2312</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12236</v>
+        <v>12270</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1796222531540095</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07770047205097519</v>
+        <v>0.06500008681306803</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3439346729092131</v>
+        <v>0.3448995700574168</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -2871,19 +2871,19 @@
         <v>7327</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3280</v>
+        <v>3131</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15114</v>
+        <v>14099</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09023513020163364</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04039107441570677</v>
+        <v>0.03855471903581598</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1861337886696463</v>
+        <v>0.1736287316066059</v>
       </c>
     </row>
     <row r="15">
@@ -2913,19 +2913,19 @@
         <v>4052</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9632</v>
+        <v>10224</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1139045360681407</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02816682923878175</v>
+        <v>0.02812947896450227</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2707527519576678</v>
+        <v>0.2873749733430022</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -2934,19 +2934,19 @@
         <v>4052</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1031</v>
+        <v>1138</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10010</v>
+        <v>9721</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04990364056406611</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01270288974780127</v>
+        <v>0.01401868083952464</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1232780141146128</v>
+        <v>0.119713812772366</v>
       </c>
     </row>
     <row r="16">
@@ -2967,19 +2967,19 @@
         <v>141919</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>121539</v>
+        <v>118621</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>166372</v>
+        <v>165541</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1631091298548535</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1396862912054777</v>
+        <v>0.1363327143932025</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1912127980024183</v>
+        <v>0.1902579422950453</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -2988,19 +2988,19 @@
         <v>78409</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>62434</v>
+        <v>62047</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97026</v>
+        <v>95671</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1055338181228106</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08403197787135411</v>
+        <v>0.08351169824857284</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1305906253340681</v>
+        <v>0.128766862825307</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>197</v>
@@ -3009,19 +3009,19 @@
         <v>220328</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>192131</v>
+        <v>192741</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>249746</v>
+        <v>251296</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1365899591858049</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1191097747814577</v>
+        <v>0.1194873973860238</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1548275820048869</v>
+        <v>0.1557881794476944</v>
       </c>
     </row>
     <row r="17">
@@ -3038,19 +3038,19 @@
         <v>665857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>639419</v>
+        <v>637415</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>693748</v>
+        <v>690390</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7652773942978247</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.734892292685272</v>
+        <v>0.7325890367966862</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.797332383864593</v>
+        <v>0.7934729457154617</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>244</v>
@@ -3059,19 +3059,19 @@
         <v>263932</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>239944</v>
+        <v>238843</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>291513</v>
+        <v>293909</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3552360700640228</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.322949729011492</v>
+        <v>0.3214684460173036</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3923586454419031</v>
+        <v>0.3955830558390708</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>847</v>
@@ -3080,19 +3080,19 @@
         <v>929789</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>888704</v>
+        <v>885893</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>973360</v>
+        <v>969157</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5764124879413194</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5509424714234171</v>
+        <v>0.5491998697303992</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6034240435352881</v>
+        <v>0.6008182701760671</v>
       </c>
     </row>
     <row r="18">
@@ -3109,19 +3109,19 @@
         <v>59271</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44641</v>
+        <v>45608</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>76901</v>
+        <v>76674</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06812106276673277</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05130679232489998</v>
+        <v>0.05241837279916393</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08838316165926975</v>
+        <v>0.08812191991919406</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>88</v>
@@ -3130,19 +3130,19 @@
         <v>96076</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>77613</v>
+        <v>79646</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117407</v>
+        <v>115900</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1293122388933964</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1044621474856294</v>
+        <v>0.1071987942995109</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1580219322624597</v>
+        <v>0.1559948027252661</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>140</v>
@@ -3151,19 +3151,19 @@
         <v>155347</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>131633</v>
+        <v>132579</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>183184</v>
+        <v>181916</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09630569945085668</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08160413921186399</v>
+        <v>0.08219060456828023</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1135627125899495</v>
+        <v>0.1127769243680705</v>
       </c>
     </row>
     <row r="19">
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11630</v>
+        <v>10977</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00349241308058906</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01336595018454022</v>
+        <v>0.0126156649620479</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>300</v>
@@ -3201,19 +3201,19 @@
         <v>322294</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>293317</v>
+        <v>293318</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>347035</v>
+        <v>350922</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4337876350838287</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3947862473238938</v>
+        <v>0.3947880511366484</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4670873951548185</v>
+        <v>0.4723193259300761</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>302</v>
@@ -3222,19 +3222,19 @@
         <v>325332</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>294924</v>
+        <v>294734</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>362451</v>
+        <v>362809</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2016862584476366</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1828347053700985</v>
+        <v>0.1827168411515462</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2246973316888238</v>
+        <v>0.2249194142010388</v>
       </c>
     </row>
     <row r="20">
@@ -3494,19 +3494,19 @@
         <v>21464</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13650</v>
+        <v>13584</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32412</v>
+        <v>31452</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04872860100279077</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03098835965876746</v>
+        <v>0.03083880197164807</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07358358417474005</v>
+        <v>0.07140507677790056</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -3515,19 +3515,19 @@
         <v>21926</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13888</v>
+        <v>13460</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32836</v>
+        <v>32095</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05153156020393709</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03264052471750355</v>
+        <v>0.03163559778100076</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07717414142264849</v>
+        <v>0.07543289138155566</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -3536,19 +3536,19 @@
         <v>43390</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30998</v>
+        <v>31336</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59160</v>
+        <v>56666</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05010581249182838</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03579600625703998</v>
+        <v>0.03618681567721531</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06831718950170336</v>
+        <v>0.06543654572010277</v>
       </c>
     </row>
     <row r="5">
@@ -3565,19 +3565,19 @@
         <v>401307</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>388684</v>
+        <v>388907</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>412497</v>
+        <v>411430</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9110701532420429</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8824128378909621</v>
+        <v>0.8829185611941309</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9364732439576063</v>
+        <v>0.9340507640178786</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>146</v>
@@ -3586,19 +3586,19 @@
         <v>166767</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147034</v>
+        <v>145841</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>191362</v>
+        <v>189224</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3919465602765825</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3455684731716315</v>
+        <v>0.34276398098375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4497505820039497</v>
+        <v>0.4447254313337262</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>573</v>
@@ -3607,19 +3607,19 @@
         <v>568074</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>538972</v>
+        <v>539653</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>598422</v>
+        <v>597257</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6560029456386901</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6223970325356954</v>
+        <v>0.6231827998410651</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.691048778362975</v>
+        <v>0.6897033903065261</v>
       </c>
     </row>
     <row r="6">
@@ -3636,19 +3636,19 @@
         <v>17708</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10568</v>
+        <v>10061</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28772</v>
+        <v>28003</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04020124575516631</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02399131866222722</v>
+        <v>0.02284031813847434</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06532080896627149</v>
+        <v>0.06357327608043646</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -3657,19 +3657,19 @@
         <v>48032</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35563</v>
+        <v>35348</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63489</v>
+        <v>63234</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1128879453040099</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08358234929194207</v>
+        <v>0.08307788124555786</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.149215134593876</v>
+        <v>0.1486172347330988</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -3678,19 +3678,19 @@
         <v>65740</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>50698</v>
+        <v>51183</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>84454</v>
+        <v>83420</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07591527173098236</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05854547860821923</v>
+        <v>0.05910511095449293</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09752661984319901</v>
+        <v>0.09633176489814643</v>
       </c>
     </row>
     <row r="7">
@@ -3720,19 +3720,19 @@
         <v>194435</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>172508</v>
+        <v>172927</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>216773</v>
+        <v>216395</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4569745221369907</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.405439117889269</v>
+        <v>0.4064235300064908</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5094735241137727</v>
+        <v>0.5085862160036605</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>162</v>
@@ -3741,19 +3741,19 @@
         <v>194435</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>168590</v>
+        <v>170342</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>221961</v>
+        <v>222858</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2245307608570083</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1946852995407048</v>
+        <v>0.1967089394348133</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2563176210642542</v>
+        <v>0.2573526156978886</v>
       </c>
     </row>
     <row r="8">
@@ -3774,19 +3774,19 @@
         <v>60892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47411</v>
+        <v>47689</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>78475</v>
+        <v>76742</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1571260264064116</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1223400130217484</v>
+        <v>0.1230573738222533</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2024956135899284</v>
+        <v>0.198025661965276</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -3795,19 +3795,19 @@
         <v>27682</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>18658</v>
+        <v>19243</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>40322</v>
+        <v>40342</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1075624177421742</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0725004506709343</v>
+        <v>0.07477011131684816</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.15667950882785</v>
+        <v>0.1567540716507896</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>80</v>
@@ -3816,19 +3816,19 @@
         <v>88574</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>71167</v>
+        <v>72165</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>108526</v>
+        <v>107830</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1373468205990755</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1103538027711204</v>
+        <v>0.1119020905939915</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1682850922001962</v>
+        <v>0.1672051764579394</v>
       </c>
     </row>
     <row r="9">
@@ -3845,19 +3845,19 @@
         <v>289084</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>270719</v>
+        <v>269944</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>304686</v>
+        <v>306089</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7459494323673613</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6985612161089599</v>
+        <v>0.6965621691839925</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7862097795575812</v>
+        <v>0.7898299920679898</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>101</v>
@@ -3866,19 +3866,19 @@
         <v>115410</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>99245</v>
+        <v>98794</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>132229</v>
+        <v>132343</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4484465358491077</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3856313360175501</v>
+        <v>0.3838816773752816</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5137969367327793</v>
+        <v>0.514239068792168</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>382</v>
@@ -3887,19 +3887,19 @@
         <v>404494</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>377104</v>
+        <v>374815</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>429843</v>
+        <v>428451</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6272258128186694</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5847530760909426</v>
+        <v>0.5812038419048737</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6665328933695405</v>
+        <v>0.6643745437738456</v>
       </c>
     </row>
     <row r="10">
@@ -3916,19 +3916,19 @@
         <v>36627</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25552</v>
+        <v>24846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49836</v>
+        <v>48346</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09451309986646451</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06593317322421742</v>
+        <v>0.06411262917581864</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.128596026559846</v>
+        <v>0.1247524342278737</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -3937,19 +3937,19 @@
         <v>51685</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38898</v>
+        <v>38559</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67012</v>
+        <v>65122</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2008298059554802</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1511428417217038</v>
+        <v>0.1498292683411047</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2603871319207795</v>
+        <v>0.253041775380032</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -3958,19 +3958,19 @@
         <v>88312</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70475</v>
+        <v>71201</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105993</v>
+        <v>107158</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1369405999449652</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.10928170891294</v>
+        <v>0.1104065379457319</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1643577575800688</v>
+        <v>0.1661630826711806</v>
       </c>
     </row>
     <row r="11">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5351</v>
+        <v>5454</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002411441359762572</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01380886500537814</v>
+        <v>0.01407428993339083</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>52</v>
@@ -4008,19 +4008,19 @@
         <v>63463</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50132</v>
+        <v>48596</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>80241</v>
+        <v>79421</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.246597775876703</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1947978213257147</v>
+        <v>0.1888260151559919</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3117881766594444</v>
+        <v>0.3086031221516874</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>53</v>
@@ -4029,19 +4029,19 @@
         <v>64398</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>49972</v>
+        <v>49898</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>84992</v>
+        <v>81884</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09985817487887674</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07748859654347635</v>
+        <v>0.07737365845235103</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1317914777798273</v>
+        <v>0.1269722244628722</v>
       </c>
     </row>
     <row r="12">
@@ -4062,19 +4062,19 @@
         <v>5952</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2170</v>
+        <v>2804</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12322</v>
+        <v>12207</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08588106494508653</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03131243617404645</v>
+        <v>0.04045440518285071</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.177795068737965</v>
+        <v>0.1761383619028539</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -4083,19 +4083,19 @@
         <v>3996</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>992</v>
+        <v>1018</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10241</v>
+        <v>9437</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07571206826568296</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01879521052834312</v>
+        <v>0.01928108045805292</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.194049792092367</v>
+        <v>0.178818663601987</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -4104,19 +4104,19 @@
         <v>9948</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5026</v>
+        <v>4904</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17397</v>
+        <v>16547</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08148485131602644</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04117279589760719</v>
+        <v>0.04017435458629368</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1425103002218421</v>
+        <v>0.135542675420189</v>
       </c>
     </row>
     <row r="13">
@@ -4133,19 +4133,19 @@
         <v>59363</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51516</v>
+        <v>52672</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64303</v>
+        <v>64373</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8565866369544642</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7433605276563575</v>
+        <v>0.760042514130478</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9278639965894492</v>
+        <v>0.9288746997184754</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -4154,19 +4154,19 @@
         <v>36036</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28008</v>
+        <v>28628</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42258</v>
+        <v>42712</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6828051050954295</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5306883827426511</v>
+        <v>0.542441374134094</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8007087525519677</v>
+        <v>0.8093114471305886</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -4175,19 +4175,19 @@
         <v>95399</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85200</v>
+        <v>85854</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103956</v>
+        <v>103661</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7814582085633913</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6979106337912473</v>
+        <v>0.7032680779309473</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8515548532721464</v>
+        <v>0.8491393121486309</v>
       </c>
     </row>
     <row r="14">
@@ -4204,19 +4204,19 @@
         <v>3987</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11039</v>
+        <v>11430</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05753229810044921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01516115489671415</v>
+        <v>0.01523017453508303</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1592831105633131</v>
+        <v>0.1649280269648746</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -4225,19 +4225,19 @@
         <v>8670</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4377</v>
+        <v>3933</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15197</v>
+        <v>14799</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.164280589890826</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08292713175994758</v>
+        <v>0.07451346012231776</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.287952212380398</v>
+        <v>0.280420169838011</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -4246,19 +4246,19 @@
         <v>12657</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7385</v>
+        <v>6899</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22096</v>
+        <v>20770</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1036812260667884</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06049041669940314</v>
+        <v>0.0565120020902435</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1809980385406505</v>
+        <v>0.1701364576171168</v>
       </c>
     </row>
     <row r="15">
@@ -4288,19 +4288,19 @@
         <v>5153</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1947</v>
+        <v>2057</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11250</v>
+        <v>11132</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09764240827547101</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03688399862923728</v>
+        <v>0.03897148592866351</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2131638065126095</v>
+        <v>0.2109229058617893</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -4309,19 +4309,19 @@
         <v>5153</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2003</v>
+        <v>1968</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10979</v>
+        <v>11684</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04221231450535317</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0164036120263708</v>
+        <v>0.01611987329783262</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08993787124373744</v>
+        <v>0.09570601059461134</v>
       </c>
     </row>
     <row r="16">
@@ -4342,19 +4342,19 @@
         <v>88308</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72247</v>
+        <v>71336</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>108848</v>
+        <v>108796</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09841312510738381</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08051427232772056</v>
+        <v>0.07949857498654882</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1213033447823983</v>
+        <v>0.1212451284200026</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -4363,19 +4363,19 @@
         <v>53603</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40022</v>
+        <v>40078</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69983</v>
+        <v>70012</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0728688228275069</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05440588324785647</v>
+        <v>0.05448172618219633</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09513505659544602</v>
+        <v>0.095174226974894</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>129</v>
@@ -4384,19 +4384,19 @@
         <v>141911</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>118693</v>
+        <v>119535</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>168149</v>
+        <v>167064</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08690574688676481</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07268693449970984</v>
+        <v>0.07320261462530057</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1029736485671292</v>
+        <v>0.1023092844594116</v>
       </c>
     </row>
     <row r="17">
@@ -4413,19 +4413,19 @@
         <v>749754</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>724752</v>
+        <v>726354</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>771109</v>
+        <v>770638</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8355492073364115</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8076856752703898</v>
+        <v>0.8094708921846487</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8593481686056829</v>
+        <v>0.8588226211848665</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>275</v>
@@ -4434,19 +4434,19 @@
         <v>318213</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>291911</v>
+        <v>290770</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>345593</v>
+        <v>347933</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4325806039806885</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3968250983356199</v>
+        <v>0.3952746197331288</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4698004399264308</v>
+        <v>0.4729818087169266</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1038</v>
@@ -4455,19 +4455,19 @@
         <v>1067967</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1026271</v>
+        <v>1026988</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1106273</v>
+        <v>1108642</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6540170566813555</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.628482704005533</v>
+        <v>0.6289213758158917</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6774750969807575</v>
+        <v>0.6789259897199863</v>
       </c>
     </row>
     <row r="18">
@@ -4484,19 +4484,19 @@
         <v>58322</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>44931</v>
+        <v>45752</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>75378</v>
+        <v>74758</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06499620372408389</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05007283568904781</v>
+        <v>0.0509876446026236</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08400371813488468</v>
+        <v>0.08331247888336737</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>99</v>
@@ -4505,19 +4505,19 @@
         <v>108387</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>88928</v>
+        <v>89946</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>127635</v>
+        <v>130466</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1473416200609816</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1208894419295895</v>
+        <v>0.1222735021397932</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1735076585179122</v>
+        <v>0.1773565514975089</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>153</v>
@@ -4526,19 +4526,19 @@
         <v>166709</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>143538</v>
+        <v>142143</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>195877</v>
+        <v>190955</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1020917501258151</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08790159868293755</v>
+        <v>0.08704737618877867</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1199541152115576</v>
+        <v>0.1169398817150704</v>
       </c>
     </row>
     <row r="19">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4672</v>
+        <v>6448</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001041463832120857</v>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.005206780936334807</v>
+        <v>0.007185437586751877</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>219</v>
@@ -4576,19 +4576,19 @@
         <v>263052</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>236651</v>
+        <v>234606</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>291006</v>
+        <v>290402</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.357593954793944</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3217044294333797</v>
+        <v>0.3189245135885726</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3955943577941048</v>
+        <v>0.3947735307586695</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>220</v>
@@ -4597,19 +4597,19 @@
         <v>263986</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>236802</v>
+        <v>235866</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>298572</v>
+        <v>297146</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1616637554119443</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1450162433835569</v>
+        <v>0.1444431072642685</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1828438843289674</v>
+        <v>0.1819706633050834</v>
       </c>
     </row>
     <row r="20">
@@ -4869,19 +4869,19 @@
         <v>6508</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3141</v>
+        <v>3160</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13669</v>
+        <v>13612</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02028881019975281</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009792814387988805</v>
+        <v>0.009849407874262002</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04260876103854725</v>
+        <v>0.04243404908112947</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>415</v>
@@ -4890,19 +4890,19 @@
         <v>216991</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>202303</v>
+        <v>201825</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>233251</v>
+        <v>233963</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5278712132627322</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4921396111412624</v>
+        <v>0.4909770113155615</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5674250238023081</v>
+        <v>0.5691574461028787</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>423</v>
@@ -4911,19 +4911,19 @@
         <v>223500</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>204095</v>
+        <v>204129</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>242286</v>
+        <v>242089</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3053863490004005</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2788712915027662</v>
+        <v>0.2789175055577935</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3310549321314894</v>
+        <v>0.3307863677142275</v>
       </c>
     </row>
     <row r="5">
@@ -4940,19 +4940,19 @@
         <v>180635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>165376</v>
+        <v>165754</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>196214</v>
+        <v>197507</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5630911475269619</v>
+        <v>0.563091147526962</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5155262737528261</v>
+        <v>0.5167047086047266</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6116582912509911</v>
+        <v>0.6156870307780933</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>191</v>
@@ -4961,19 +4961,19 @@
         <v>104957</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>92348</v>
+        <v>91448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>119176</v>
+        <v>119791</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.255326564375943</v>
+        <v>0.2553265643759431</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2246521513224052</v>
+        <v>0.2224649131234986</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2899173426339909</v>
+        <v>0.2914136735000021</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>445</v>
@@ -4982,19 +4982,19 @@
         <v>285591</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>263477</v>
+        <v>266783</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>306953</v>
+        <v>306449</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3902267521955187</v>
+        <v>0.3902267521955188</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3600097040462705</v>
+        <v>0.364526968642402</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4194154289828693</v>
+        <v>0.4187268988858637</v>
       </c>
     </row>
     <row r="6">
@@ -5011,19 +5011,19 @@
         <v>94309</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80500</v>
+        <v>80450</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>108618</v>
+        <v>108814</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2939901348185083</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2509414618886348</v>
+        <v>0.2507847881188624</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3385954894990406</v>
+        <v>0.339206786617524</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>110</v>
@@ -5032,19 +5032,19 @@
         <v>64808</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>54734</v>
+        <v>55014</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>77446</v>
+        <v>76410</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1576580701162117</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1331508099867238</v>
+        <v>0.1338307633263047</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1884026336681804</v>
+        <v>0.1858811401489351</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>233</v>
@@ -5053,19 +5053,19 @@
         <v>159118</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>139110</v>
+        <v>141690</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>179325</v>
+        <v>178824</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2174155020658973</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1900776492232881</v>
+        <v>0.1936023585120323</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2450263041375108</v>
+        <v>0.2443422575964517</v>
       </c>
     </row>
     <row r="7">
@@ -5082,19 +5082,19 @@
         <v>39339</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29629</v>
+        <v>30061</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50886</v>
+        <v>50441</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1226299074547769</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09236179933408099</v>
+        <v>0.09370909734473752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1586275628674949</v>
+        <v>0.1572391383198842</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -5103,19 +5103,19 @@
         <v>24312</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18239</v>
+        <v>17493</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32325</v>
+        <v>31920</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05914415224511312</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04437054610455849</v>
+        <v>0.04255403268180304</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0786360097858215</v>
+        <v>0.07765179475003842</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -5124,19 +5124,19 @@
         <v>63651</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52072</v>
+        <v>51961</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77418</v>
+        <v>76961</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0869713967381834</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07115025875578403</v>
+        <v>0.07099793864769093</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1057826131564325</v>
+        <v>0.1051575040877503</v>
       </c>
     </row>
     <row r="8">
@@ -5157,19 +5157,19 @@
         <v>4287</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1477</v>
+        <v>1521</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10447</v>
+        <v>9977</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01002281529850344</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003453248947160925</v>
+        <v>0.003556150069660926</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02442246042217438</v>
+        <v>0.02332325872624177</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>146</v>
@@ -5178,19 +5178,19 @@
         <v>84967</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73430</v>
+        <v>73303</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>96991</v>
+        <v>97490</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2789346908263534</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2410584682210269</v>
+        <v>0.2406437213510611</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3184048195686289</v>
+        <v>0.320043184866335</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>151</v>
@@ -5199,19 +5199,19 @@
         <v>89255</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>77002</v>
+        <v>75728</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>104665</v>
+        <v>103795</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1218694158822505</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1051388003931117</v>
+        <v>0.1034003398065921</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1429108716017822</v>
+        <v>0.1417227672691408</v>
       </c>
     </row>
     <row r="9">
@@ -5228,19 +5228,19 @@
         <v>195681</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>176174</v>
+        <v>177004</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>213587</v>
+        <v>215284</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4574487808195146</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4118446038272531</v>
+        <v>0.4137852605134167</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4993065601611556</v>
+        <v>0.5032740392528552</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>184</v>
@@ -5249,19 +5249,19 @@
         <v>100479</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>88120</v>
+        <v>88334</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>111760</v>
+        <v>112324</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.329856005478718</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2892837348547531</v>
+        <v>0.2899850549080185</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3668900708151688</v>
+        <v>0.3687421459650743</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>433</v>
@@ -5270,19 +5270,19 @@
         <v>296160</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>273741</v>
+        <v>275886</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>318692</v>
+        <v>317129</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4043800267791751</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3737689703618298</v>
+        <v>0.3766972305686862</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4351451032190043</v>
+        <v>0.4330117408666957</v>
       </c>
     </row>
     <row r="10">
@@ -5299,19 +5299,19 @@
         <v>143540</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>126860</v>
+        <v>125825</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>162738</v>
+        <v>162656</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3355575437553079</v>
+        <v>0.3355575437553081</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2965627099677551</v>
+        <v>0.2941433856100754</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3804358514257183</v>
+        <v>0.3802433857007092</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>130</v>
@@ -5320,19 +5320,19 @@
         <v>84785</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72693</v>
+        <v>72080</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98510</v>
+        <v>97439</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.278336272705882</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2386384010152214</v>
+        <v>0.2366289036224425</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3233941561307665</v>
+        <v>0.3198763347414777</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>309</v>
@@ -5341,19 +5341,19 @@
         <v>228325</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>207058</v>
+        <v>208174</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>251127</v>
+        <v>250030</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3117579081483017</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.282719454073911</v>
+        <v>0.2842424975689715</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3428916870951172</v>
+        <v>0.34139353063663</v>
       </c>
     </row>
     <row r="11">
@@ -5370,19 +5370,19 @@
         <v>84258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69356</v>
+        <v>69969</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>99919</v>
+        <v>100797</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1969708601266739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1621342435156098</v>
+        <v>0.163567817642279</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2335824767303051</v>
+        <v>0.2356356331374087</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -5391,19 +5391,19 @@
         <v>34383</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26664</v>
+        <v>26303</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>43160</v>
+        <v>43896</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1128730309890465</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08753534130469164</v>
+        <v>0.08634949064255819</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.14168613067125</v>
+        <v>0.1441030338771111</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>155</v>
@@ -5412,19 +5412,19 @@
         <v>118640</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>100449</v>
+        <v>101234</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>136831</v>
+        <v>137329</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1619926491902727</v>
+        <v>0.1619926491902726</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1371537006386044</v>
+        <v>0.1382262633719586</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1868309401356145</v>
+        <v>0.1875105119598573</v>
       </c>
     </row>
     <row r="12">
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5093</v>
+        <v>5166</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006873522541885291</v>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04141927951444696</v>
+        <v>0.04200752367497058</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -5466,19 +5466,19 @@
         <v>7451</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3505</v>
+        <v>3980</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13834</v>
+        <v>13815</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08696822906951565</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04090607273549134</v>
+        <v>0.04645523689938964</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1614693936555735</v>
+        <v>0.1612532890821196</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -5487,19 +5487,19 @@
         <v>8296</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4593</v>
+        <v>4450</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15388</v>
+        <v>15318</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03976224971215978</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02201550446938347</v>
+        <v>0.02133022910095951</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07375354831638642</v>
+        <v>0.07341858256771583</v>
       </c>
     </row>
     <row r="13">
@@ -5516,19 +5516,19 @@
         <v>78461</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68581</v>
+        <v>68070</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88251</v>
+        <v>87022</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.6380459124500764</v>
+        <v>0.6380459124500765</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5577079167914787</v>
+        <v>0.5535523232211375</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7176648709319557</v>
+        <v>0.7076688825868992</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>92</v>
@@ -5537,19 +5537,19 @@
         <v>52183</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45284</v>
+        <v>45400</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59080</v>
+        <v>59383</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6090907493426272</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5285652037469181</v>
+        <v>0.5299158905196812</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6895863474018346</v>
+        <v>0.6931296505795664</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>197</v>
@@ -5558,19 +5558,19 @@
         <v>130644</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>118570</v>
+        <v>118738</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142343</v>
+        <v>142818</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6261562570546454</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5682870956790751</v>
+        <v>0.569094650922677</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6822305076560545</v>
+        <v>0.684506814347716</v>
       </c>
     </row>
     <row r="14">
@@ -5587,19 +5587,19 @@
         <v>31885</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22972</v>
+        <v>23567</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41118</v>
+        <v>41224</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.259294679846079</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1868111588871011</v>
+        <v>0.1916469276848964</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3343719898781856</v>
+        <v>0.3352364365578968</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -5608,19 +5608,19 @@
         <v>18571</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13240</v>
+        <v>13126</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25930</v>
+        <v>25797</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2167624695269504</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1545368350750426</v>
+        <v>0.153212946781973</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.302656006198817</v>
+        <v>0.3011047645460652</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>70</v>
@@ -5629,19 +5629,19 @@
         <v>50456</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>40343</v>
+        <v>40910</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61074</v>
+        <v>62239</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2418299768491088</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1933556772552144</v>
+        <v>0.1960769170173499</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.292718725874985</v>
+        <v>0.2983030796221266</v>
       </c>
     </row>
     <row r="15">
@@ -5658,19 +5658,19 @@
         <v>11779</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6542</v>
+        <v>7011</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19598</v>
+        <v>19887</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09578588516195938</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05320403082885385</v>
+        <v>0.05701053405867427</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1593689825982881</v>
+        <v>0.1617217176210783</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>13</v>
@@ -5679,19 +5679,19 @@
         <v>7469</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4135</v>
+        <v>4111</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12377</v>
+        <v>12074</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08717855206090672</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04826352392858371</v>
+        <v>0.04798493784152117</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1444615864180311</v>
+        <v>0.1409303145693452</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>26</v>
@@ -5700,19 +5700,19 @@
         <v>19248</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>12926</v>
+        <v>12337</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>27623</v>
+        <v>26919</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.09225151638408592</v>
+        <v>0.09225151638408594</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0619513161487598</v>
+        <v>0.05912711290579088</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1323912054266333</v>
+        <v>0.1290209720569263</v>
       </c>
     </row>
     <row r="16">
@@ -5733,19 +5733,19 @@
         <v>11641</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6277</v>
+        <v>6398</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19203</v>
+        <v>19960</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01335715375453735</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007202378715236096</v>
+        <v>0.00734134359807475</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02203381453625899</v>
+        <v>0.02290207798398085</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>572</v>
@@ -5754,19 +5754,19 @@
         <v>309410</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>289251</v>
+        <v>289371</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>330961</v>
+        <v>328863</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3861073690037707</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.360951057490009</v>
+        <v>0.3611009438674016</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.413000414647838</v>
+        <v>0.4103823840768572</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>586</v>
@@ -5775,19 +5775,19 @@
         <v>321051</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>296680</v>
+        <v>295594</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>345512</v>
+        <v>346332</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1919146025209125</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1773465116518794</v>
+        <v>0.1766975149563381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2065367852414872</v>
+        <v>0.2070266564030367</v>
       </c>
     </row>
     <row r="17">
@@ -5804,19 +5804,19 @@
         <v>454776</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>427999</v>
+        <v>426536</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>479995</v>
+        <v>481132</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5218152077796022</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4910912001611198</v>
+        <v>0.4894127563853232</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5507517979540265</v>
+        <v>0.552056852112731</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>467</v>
@@ -5825,19 +5825,19 @@
         <v>257619</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>238254</v>
+        <v>238932</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>280570</v>
+        <v>279401</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3214782259147364</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2973133291584054</v>
+        <v>0.2981591284799835</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3501187899308432</v>
+        <v>0.3486593442743148</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1075</v>
@@ -5846,19 +5846,19 @@
         <v>712395</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>680194</v>
+        <v>678769</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>745756</v>
+        <v>745482</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4258483674883689</v>
+        <v>0.425848367488369</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4065997978118286</v>
+        <v>0.4057477468219747</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4457909193369427</v>
+        <v>0.4456265423000258</v>
       </c>
     </row>
     <row r="18">
@@ -5875,19 +5875,19 @@
         <v>269735</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>246095</v>
+        <v>245839</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>291574</v>
+        <v>295010</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3094970011003318</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2823725218297097</v>
+        <v>0.2820779809455393</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3345550995939713</v>
+        <v>0.3384976702714703</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>269</v>
@@ -5896,19 +5896,19 @@
         <v>168164</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>150580</v>
+        <v>150110</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>186623</v>
+        <v>186481</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.209849501743567</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1879068112135616</v>
+        <v>0.1873197828290063</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2328838342204164</v>
+        <v>0.2327059957839329</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>612</v>
@@ -5917,19 +5917,19 @@
         <v>437899</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>411980</v>
+        <v>406971</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>469528</v>
+        <v>467948</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2617631500301289</v>
+        <v>0.261763150030129</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2462694277769026</v>
+        <v>0.2432750964870247</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2806700759489096</v>
+        <v>0.2797253689637793</v>
       </c>
     </row>
     <row r="19">
@@ -5946,19 +5946,19 @@
         <v>135375</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>116634</v>
+        <v>115777</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>155950</v>
+        <v>155736</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1553306373655286</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1338266134629854</v>
+        <v>0.1328437974175067</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1789392469675704</v>
+        <v>0.1786935270739187</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>113</v>
@@ -5967,19 +5967,19 @@
         <v>66164</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54253</v>
+        <v>55002</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79556</v>
+        <v>79541</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08256490333792604</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06770139240256197</v>
+        <v>0.06863649776291401</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09927685894453878</v>
+        <v>0.09925798267355444</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>279</v>
@@ -5988,19 +5988,19 @@
         <v>201539</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>179441</v>
+        <v>179341</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>226443</v>
+        <v>224502</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1204738799605896</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1072644744762831</v>
+        <v>0.1072046177832595</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1353608864057758</v>
+        <v>0.134200437267406</v>
       </c>
     </row>
     <row r="20">
